--- a/Analise/Excel/ExcelTCC.xlsx
+++ b/Analise/Excel/ExcelTCC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4660C8-1D5D-405A-9799-F1848260852B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBA45B0-B418-4FC7-ACAF-E2144C9F679A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Casos de uso</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Tela de anuncio detalhado</t>
-  </si>
-  <si>
-    <t>Tela de anuncio com consulta</t>
   </si>
   <si>
     <t>Tela de anuncio com consulta e filtro</t>
@@ -228,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -240,6 +237,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +579,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,22 +594,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -631,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -645,10 +643,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -662,10 +660,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -679,10 +677,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -692,23 +690,21 @@
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C7" s="11"/>
       <c r="E7" s="1"/>
     </row>
   </sheetData>

--- a/Analise/Excel/ExcelTCC.xlsx
+++ b/Analise/Excel/ExcelTCC.xlsx
@@ -3,21 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBA45B0-B418-4FC7-ACAF-E2144C9F679A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4B70A1-FBAE-43F7-826D-5FC300DD06E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Casos de uso</t>
   </si>
@@ -104,6 +102,9 @@
   </si>
   <si>
     <t>1ª Semana até dia 12/10</t>
+  </si>
+  <si>
+    <t>Tela esqueci a senha</t>
   </si>
 </sst>
 </file>
@@ -145,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -214,6 +215,15 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -237,7 +247,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,7 +589,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,10 +700,10 @@
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -704,35 +714,13 @@
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Analise/Excel/ExcelTCC.xlsx
+++ b/Analise/Excel/ExcelTCC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4B70A1-FBAE-43F7-826D-5FC300DD06E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AC4CB2-1B50-46C8-B2AF-8B0113815B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Casos de uso</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Tela esqueci a senha</t>
+  </si>
+  <si>
+    <t>Markdown</t>
   </si>
 </sst>
 </file>
@@ -235,9 +238,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -589,7 +591,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,121 +605,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analise/Excel/ExcelTCC.xlsx
+++ b/Analise/Excel/ExcelTCC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AC4CB2-1B50-46C8-B2AF-8B0113815B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD818EB-EE58-4CE2-9655-5190A32CEB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Casos de uso</t>
   </si>
@@ -108,13 +108,16 @@
   </si>
   <si>
     <t>Markdown</t>
+  </si>
+  <si>
+    <t>Perguntas e Respostas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +130,14 @@
       <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -227,18 +238,18 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -250,6 +261,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,13 +715,13 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -719,9 +732,15 @@
       <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D7" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analise/Excel/ExcelTCC.xlsx
+++ b/Analise/Excel/ExcelTCC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD818EB-EE58-4CE2-9655-5190A32CEB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03731BEB-F7EF-4B5E-80F0-66ADF42D1944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Casos de uso</t>
   </si>
@@ -47,15 +47,9 @@
     <t>Tela de minha conta/Alterar Login</t>
   </si>
   <si>
-    <t>Tela Home com todos os anuncios sem consulta</t>
-  </si>
-  <si>
     <t>Tela de anuncio detalhado</t>
   </si>
   <si>
-    <t>Tela de anuncio com consulta e filtro</t>
-  </si>
-  <si>
     <t>Tela de anunciar</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Tela de anuncios favoritos</t>
   </si>
   <si>
-    <t>Revisão e testes</t>
-  </si>
-  <si>
     <t>2ª Semana até dia 19/10</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>5ª Semana até dia 09/11</t>
   </si>
   <si>
-    <t>6ª Semana até o dia 16/11</t>
-  </si>
-  <si>
     <t>1ª Semana até dia 12/10</t>
   </si>
   <si>
@@ -110,7 +98,10 @@
     <t>Markdown</t>
   </si>
   <si>
-    <t>Perguntas e Respostas</t>
+    <t>Perguntas e Respostas no anuncio</t>
+  </si>
+  <si>
+    <t>Tela Home com anuncios com consulta ou sem consulta e filtro</t>
   </si>
 </sst>
 </file>
@@ -160,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -245,24 +236,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +608,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,130 +623,136 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
+      <c r="C3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
+      <c r="C4" s="14"/>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D10" s="13"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="12"/>
+      <c r="D14" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Analise/Excel/ExcelTCC.xlsx
+++ b/Analise/Excel/ExcelTCC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03731BEB-F7EF-4B5E-80F0-66ADF42D1944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024600F0-7FE2-4A03-A4F0-2BF7621D9777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Casos de uso</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Tela Home com anuncios com consulta ou sem consulta e filtro</t>
+  </si>
+  <si>
+    <t>Backend consultar um anuncio favorito</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -236,20 +239,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -263,7 +257,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -608,7 +601,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +655,7 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -679,7 +672,7 @@
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
@@ -736,14 +729,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D10" s="13"/>
+    <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/Analise/Excel/ExcelTCC.xlsx
+++ b/Analise/Excel/ExcelTCC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024600F0-7FE2-4A03-A4F0-2BF7621D9777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26CCFCE-0D15-4955-8FB9-522DB5080583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
     <t>Tela Home com anuncios com consulta ou sem consulta e filtro</t>
   </si>
   <si>
-    <t>Backend consultar um anuncio favorito</t>
+    <t>Backend consultar se o anuncio esta favoritado</t>
   </si>
 </sst>
 </file>
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -259,6 +259,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,7 +604,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,8 +738,8 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="4" t="s">
+    <row r="10" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="11"/>

--- a/Analise/Excel/ExcelTCC.xlsx
+++ b/Analise/Excel/ExcelTCC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26CCFCE-0D15-4955-8FB9-522DB5080583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869B30ED-9D64-4F56-89DD-72F1C3468D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>Tela de inativar anuncio</t>
   </si>
   <si>
-    <t>Tela de anuncios favoritos</t>
-  </si>
-  <si>
     <t>2ª Semana até dia 19/10</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Backend consultar se o anuncio esta favoritado</t>
+  </si>
+  <si>
+    <t>Tela de anuncios favoritados</t>
   </si>
 </sst>
 </file>
@@ -257,11 +257,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,7 +604,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,19 +619,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -658,11 +658,11 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>28</v>
+      <c r="C3" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -675,7 +675,7 @@
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
@@ -697,7 +697,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -708,10 +708,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
@@ -739,8 +739,8 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="14" t="s">
-        <v>29</v>
+      <c r="D10" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="F10" s="11"/>
     </row>
